--- a/Code/Results/Cases/Case_8_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.086971244435318</v>
+        <v>1.037103070848787</v>
       </c>
       <c r="C2">
-        <v>0.1290393545438704</v>
+        <v>0.1405802288135902</v>
       </c>
       <c r="D2">
-        <v>0.07526658964077626</v>
+        <v>0.07545514503350859</v>
       </c>
       <c r="E2">
-        <v>0.0780220740485511</v>
+        <v>0.07728803545170848</v>
       </c>
       <c r="F2">
-        <v>0.558467856099881</v>
+        <v>0.5039442564549148</v>
       </c>
       <c r="G2">
-        <v>0.00081537461963163</v>
+        <v>0.008775995384290525</v>
       </c>
       <c r="H2">
-        <v>0.001707924617861734</v>
+        <v>0.0007835760035844741</v>
       </c>
       <c r="I2">
-        <v>0.002897319777384499</v>
+        <v>0.001465534713107175</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4255929032528734</v>
+        <v>0.3707154139484032</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1800043279658503</v>
       </c>
       <c r="M2">
-        <v>0.9361222653304537</v>
+        <v>0.1042722578243787</v>
       </c>
       <c r="N2">
-        <v>0.2757337637050767</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.944959517302749</v>
       </c>
       <c r="P2">
-        <v>0.8933057794367114</v>
+        <v>0.2860024287384704</v>
       </c>
       <c r="Q2">
-        <v>1.735232205071554</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8376696054831783</v>
+      </c>
+      <c r="S2">
+        <v>1.530877254437698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9475623274995826</v>
+        <v>0.9073127090201751</v>
       </c>
       <c r="C3">
-        <v>0.1202178640569613</v>
+        <v>0.1297723885339437</v>
       </c>
       <c r="D3">
-        <v>0.06824827961476387</v>
+        <v>0.06744199571642184</v>
       </c>
       <c r="E3">
-        <v>0.07127556111209188</v>
+        <v>0.07154933508045502</v>
       </c>
       <c r="F3">
-        <v>0.5322566728728475</v>
+        <v>0.4797305392504185</v>
       </c>
       <c r="G3">
-        <v>0.0008180183843116261</v>
+        <v>0.01121054438278857</v>
       </c>
       <c r="H3">
-        <v>0.002800635040144606</v>
+        <v>0.001465955270124608</v>
       </c>
       <c r="I3">
-        <v>0.004135351099551876</v>
+        <v>0.002107825826645815</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4205625038854031</v>
+        <v>0.3674157576654054</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1833961073810464</v>
       </c>
       <c r="M3">
-        <v>0.8154878223914466</v>
+        <v>0.0998978609635337</v>
       </c>
       <c r="N3">
-        <v>0.2430800160411337</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8250488271357597</v>
       </c>
       <c r="P3">
-        <v>0.9218442633842132</v>
+        <v>0.2527666203121584</v>
       </c>
       <c r="Q3">
-        <v>1.689879391477405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.861110797791703</v>
+      </c>
+      <c r="S3">
+        <v>1.489541585421321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.861605046679756</v>
+        <v>0.8270449799561845</v>
       </c>
       <c r="C4">
-        <v>0.1148216271802767</v>
+        <v>0.123211606826068</v>
       </c>
       <c r="D4">
-        <v>0.06393183666763491</v>
+        <v>0.06252827630815716</v>
       </c>
       <c r="E4">
-        <v>0.06709677459738828</v>
+        <v>0.0679826052673409</v>
       </c>
       <c r="F4">
-        <v>0.5165928423463981</v>
+        <v>0.4650941534783826</v>
       </c>
       <c r="G4">
-        <v>0.000819701864990618</v>
+        <v>0.01291453019335481</v>
       </c>
       <c r="H4">
-        <v>0.003637861221604588</v>
+        <v>0.002012284438633438</v>
       </c>
       <c r="I4">
-        <v>0.005088408774421183</v>
+        <v>0.002645669073316537</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4176565628347468</v>
+        <v>0.3654466555361999</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1855016587270271</v>
       </c>
       <c r="M4">
-        <v>0.7413233753500492</v>
+        <v>0.09773717401297333</v>
       </c>
       <c r="N4">
-        <v>0.2230423694692547</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.751238811584912</v>
       </c>
       <c r="P4">
-        <v>0.9399304653951113</v>
+        <v>0.2323799054207001</v>
       </c>
       <c r="Q4">
-        <v>1.663265349269651</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8760125751186649</v>
+      </c>
+      <c r="S4">
+        <v>1.464735354355952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8257581904914559</v>
+        <v>0.7934791368721221</v>
       </c>
       <c r="C5">
-        <v>0.1127692198204855</v>
+        <v>0.1207253694099677</v>
       </c>
       <c r="D5">
-        <v>0.06221959162978408</v>
+        <v>0.06057795671102184</v>
       </c>
       <c r="E5">
-        <v>0.06532944463815582</v>
+        <v>0.06646489079519213</v>
       </c>
       <c r="F5">
-        <v>0.5099148955355446</v>
+        <v>0.4587976137072118</v>
       </c>
       <c r="G5">
-        <v>0.0008204078408641192</v>
+        <v>0.01366481609104248</v>
       </c>
       <c r="H5">
-        <v>0.004021785970352854</v>
+        <v>0.00226747112782133</v>
       </c>
       <c r="I5">
-        <v>0.005601995125045445</v>
+        <v>0.002987737972572013</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4161548879691601</v>
+        <v>0.3643184711300655</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1861983107591492</v>
       </c>
       <c r="M5">
-        <v>0.7110252421774135</v>
+        <v>0.09689986031989051</v>
       </c>
       <c r="N5">
-        <v>0.2149350253805693</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7210648651916927</v>
       </c>
       <c r="P5">
-        <v>0.9473600803285729</v>
+        <v>0.2241331817421326</v>
       </c>
       <c r="Q5">
-        <v>1.651417550383371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.882166003624608</v>
+      </c>
+      <c r="S5">
+        <v>1.453511596677515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8189115030593825</v>
+        <v>0.787026672032539</v>
       </c>
       <c r="C6">
-        <v>0.1126052129857129</v>
+        <v>0.1205231587047706</v>
       </c>
       <c r="D6">
-        <v>0.06199522831246185</v>
+        <v>0.06031667127839313</v>
       </c>
       <c r="E6">
-        <v>0.0649681749253066</v>
+        <v>0.06614711601528711</v>
       </c>
       <c r="F6">
-        <v>0.5083253744436576</v>
+        <v>0.4572824913942313</v>
       </c>
       <c r="G6">
-        <v>0.0008205316591340199</v>
+        <v>0.01379879075049256</v>
       </c>
       <c r="H6">
-        <v>0.004091059884868187</v>
+        <v>0.00231386383071297</v>
       </c>
       <c r="I6">
-        <v>0.005793263184551201</v>
+        <v>0.003163135074060186</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4154659647703127</v>
+        <v>0.3637177242290655</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1861108537202369</v>
       </c>
       <c r="M6">
-        <v>0.7059347544160346</v>
+        <v>0.09665998555468214</v>
       </c>
       <c r="N6">
-        <v>0.213658654386677</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7159945037046214</v>
       </c>
       <c r="P6">
-        <v>0.9485068322485359</v>
+        <v>0.222834362174325</v>
       </c>
       <c r="Q6">
-        <v>1.647878500187858</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8831430496575727</v>
+      </c>
+      <c r="S6">
+        <v>1.45012665359107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.85868649529408</v>
+        <v>0.8227599710351967</v>
       </c>
       <c r="C7">
-        <v>0.1152778284267129</v>
+        <v>0.1232401108478527</v>
       </c>
       <c r="D7">
-        <v>0.06407360695381215</v>
+        <v>0.06301006699533929</v>
       </c>
       <c r="E7">
-        <v>0.06688921337568132</v>
+        <v>0.06789325883313424</v>
       </c>
       <c r="F7">
-        <v>0.5151729507240859</v>
+        <v>0.4612259394399842</v>
       </c>
       <c r="G7">
-        <v>0.0008197265248365497</v>
+        <v>0.01329394413325224</v>
       </c>
       <c r="H7">
-        <v>0.003650769670633824</v>
+        <v>0.002027796372994661</v>
       </c>
       <c r="I7">
-        <v>0.005360923536541051</v>
+        <v>0.002959476158021168</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4164293692527146</v>
+        <v>0.3629594515314771</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1843302427247053</v>
       </c>
       <c r="M7">
-        <v>0.7407563005436515</v>
+        <v>0.09704344029670864</v>
       </c>
       <c r="N7">
-        <v>0.2231243940532437</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.748233639589003</v>
       </c>
       <c r="P7">
-        <v>0.9397825401230389</v>
+        <v>0.2322585792002059</v>
       </c>
       <c r="Q7">
-        <v>1.658766217478743</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8757936212319031</v>
+      </c>
+      <c r="S7">
+        <v>1.452376499220804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.035720899866448</v>
+        <v>0.9844331904588444</v>
       </c>
       <c r="C8">
-        <v>0.1266422376311596</v>
+        <v>0.1358759101080125</v>
       </c>
       <c r="D8">
-        <v>0.07306918582168009</v>
+        <v>0.07406692347020538</v>
       </c>
       <c r="E8">
-        <v>0.07545953855184706</v>
+        <v>0.07545084703303928</v>
       </c>
       <c r="F8">
-        <v>0.547579865357207</v>
+        <v>0.4856197239102542</v>
       </c>
       <c r="G8">
-        <v>0.0008162927716057343</v>
+        <v>0.01144711894395467</v>
       </c>
       <c r="H8">
-        <v>0.002056568019905614</v>
+        <v>0.001011249111980916</v>
       </c>
       <c r="I8">
-        <v>0.003601909615881915</v>
+        <v>0.00204090668220136</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.422229622745359</v>
+        <v>0.3637127043885933</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1785957927133772</v>
       </c>
       <c r="M8">
-        <v>0.8943293438461808</v>
+        <v>0.1008177810050537</v>
       </c>
       <c r="N8">
-        <v>0.2647272365615976</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8952422320016069</v>
       </c>
       <c r="P8">
-        <v>0.9027558718013093</v>
+        <v>0.2741185878298609</v>
       </c>
       <c r="Q8">
-        <v>1.713607304928942</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8453083576576148</v>
+      </c>
+      <c r="S8">
+        <v>1.484636087495673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.38456046823768</v>
+        <v>1.306483231620689</v>
       </c>
       <c r="C9">
-        <v>0.1483017185260351</v>
+        <v>0.1621166535631602</v>
       </c>
       <c r="D9">
-        <v>0.09037528730101485</v>
+        <v>0.09428125942009302</v>
       </c>
       <c r="E9">
-        <v>0.0923227976299863</v>
+        <v>0.08985592599657366</v>
       </c>
       <c r="F9">
-        <v>0.6171551133761639</v>
+        <v>0.546753112866881</v>
       </c>
       <c r="G9">
-        <v>0.0008100040060052206</v>
+        <v>0.006815281016778307</v>
       </c>
       <c r="H9">
-        <v>0.0003179082062689798</v>
+        <v>5.52824092734383E-05</v>
       </c>
       <c r="I9">
-        <v>0.001362891801400146</v>
+        <v>0.000940218903553891</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4372748916707501</v>
+        <v>0.3725183884087997</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1707244345777426</v>
       </c>
       <c r="M9">
-        <v>1.195267526922237</v>
+        <v>0.1143623224834442</v>
       </c>
       <c r="N9">
-        <v>0.346146182700835</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.191333711004631</v>
       </c>
       <c r="P9">
-        <v>0.8351098143963895</v>
+        <v>0.3568223906029999</v>
       </c>
       <c r="Q9">
-        <v>1.839261106347692</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.7903677105842881</v>
+      </c>
+      <c r="S9">
+        <v>1.589203179365143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.627548450149135</v>
+        <v>1.521216145683638</v>
       </c>
       <c r="C10">
-        <v>0.166468039738163</v>
+        <v>0.1808404290731147</v>
       </c>
       <c r="D10">
-        <v>0.1040764127355871</v>
+        <v>0.1123323773082134</v>
       </c>
       <c r="E10">
-        <v>0.09962103602757111</v>
+        <v>0.09622450497609947</v>
       </c>
       <c r="F10">
-        <v>0.6636039491086692</v>
+        <v>0.57259206916153</v>
       </c>
       <c r="G10">
-        <v>0.0008057419993414346</v>
+        <v>0.01220670670541146</v>
       </c>
       <c r="H10">
-        <v>0.0001875226227046056</v>
+        <v>0.0002472932684178808</v>
       </c>
       <c r="I10">
-        <v>0.0009573912571934073</v>
+        <v>0.001090374999442645</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.443494770370215</v>
+        <v>0.3672620133338071</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1607964189979114</v>
       </c>
       <c r="M10">
-        <v>1.414040989756359</v>
+        <v>0.1220275394675951</v>
       </c>
       <c r="N10">
-        <v>0.3884418238499592</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.391211486303433</v>
       </c>
       <c r="P10">
-        <v>0.7881277202225565</v>
+        <v>0.3985668487788985</v>
       </c>
       <c r="Q10">
-        <v>1.915460561304371</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.7545683389880686</v>
+      </c>
+      <c r="S10">
+        <v>1.604695374435806</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.641339250397209</v>
+        <v>1.519352273039004</v>
       </c>
       <c r="C11">
-        <v>0.192498307219239</v>
+        <v>0.2014632100998028</v>
       </c>
       <c r="D11">
-        <v>0.1187626279126235</v>
+        <v>0.1331536171287411</v>
       </c>
       <c r="E11">
-        <v>0.06685701870350869</v>
+        <v>0.06576130251851886</v>
       </c>
       <c r="F11">
-        <v>0.6266118368775722</v>
+        <v>0.5116939627814645</v>
       </c>
       <c r="G11">
-        <v>0.0008044962737584352</v>
+        <v>0.04611292322263694</v>
       </c>
       <c r="H11">
-        <v>0.01875400398858673</v>
+        <v>0.01877736729735702</v>
       </c>
       <c r="I11">
-        <v>0.001445228831741474</v>
+        <v>0.001762394873436435</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4005315096936499</v>
+        <v>0.3178310185038207</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1404649753354974</v>
       </c>
       <c r="M11">
-        <v>1.493111076089207</v>
+        <v>0.1062994153907084</v>
       </c>
       <c r="N11">
-        <v>0.2676285637328562</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.436749662718853</v>
       </c>
       <c r="P11">
-        <v>0.7699840043562389</v>
+        <v>0.2735884015745285</v>
       </c>
       <c r="Q11">
-        <v>1.764636104071485</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.7572750926680314</v>
+      </c>
+      <c r="S11">
+        <v>1.387300179487596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.604834042808022</v>
+        <v>1.481268303061853</v>
       </c>
       <c r="C12">
-        <v>0.2121843556455048</v>
+        <v>0.2171419078515271</v>
       </c>
       <c r="D12">
-        <v>0.1285595372737021</v>
+        <v>0.1460584351679728</v>
       </c>
       <c r="E12">
-        <v>0.0464455051241206</v>
+        <v>0.04648946967790479</v>
       </c>
       <c r="F12">
-        <v>0.5878623629688562</v>
+        <v>0.4668985223905509</v>
       </c>
       <c r="G12">
-        <v>0.0008042516299374691</v>
+        <v>0.07061629571129657</v>
       </c>
       <c r="H12">
-        <v>0.05743634717523349</v>
+        <v>0.05742387248739078</v>
       </c>
       <c r="I12">
-        <v>0.001442122788320788</v>
+        <v>0.001762128631058957</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3665761666120559</v>
+        <v>0.2861251356442907</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1288980917652953</v>
       </c>
       <c r="M12">
-        <v>1.513456835569173</v>
+        <v>0.09446909513776802</v>
       </c>
       <c r="N12">
-        <v>0.176300632447699</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.441907665198045</v>
       </c>
       <c r="P12">
-        <v>0.7700865034820623</v>
+        <v>0.1801712281187307</v>
       </c>
       <c r="Q12">
-        <v>1.630979445029027</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.7736054493526296</v>
+      </c>
+      <c r="S12">
+        <v>1.242362675731556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.523917870641611</v>
+        <v>1.413090257711161</v>
       </c>
       <c r="C13">
-        <v>0.2286424574271848</v>
+        <v>0.2329816197166252</v>
       </c>
       <c r="D13">
-        <v>0.1353172562065765</v>
+        <v>0.1522148728539889</v>
       </c>
       <c r="E13">
-        <v>0.03402292937765283</v>
+        <v>0.03465118178938464</v>
       </c>
       <c r="F13">
-        <v>0.5433454083133853</v>
+        <v>0.4337240675032135</v>
       </c>
       <c r="G13">
-        <v>0.0008047839760542927</v>
+        <v>0.06490599207564429</v>
       </c>
       <c r="H13">
-        <v>0.1132122991309785</v>
+        <v>0.113147810775061</v>
       </c>
       <c r="I13">
-        <v>0.001424511671556772</v>
+        <v>0.00168735822744992</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3356514824392285</v>
+        <v>0.2651441450119556</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1221995084834564</v>
       </c>
       <c r="M13">
-        <v>1.489311745253929</v>
+        <v>0.08519306832021201</v>
       </c>
       <c r="N13">
-        <v>0.1029795506915647</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.422527962565084</v>
       </c>
       <c r="P13">
-        <v>0.7831071999217158</v>
+        <v>0.1060688854046887</v>
       </c>
       <c r="Q13">
-        <v>1.495745929883299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.7938943221916333</v>
+      </c>
+      <c r="S13">
+        <v>1.146945550508718</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.446900799022558</v>
+        <v>1.350960991431236</v>
       </c>
       <c r="C14">
-        <v>0.2390964529915465</v>
+        <v>0.2448613467327192</v>
       </c>
       <c r="D14">
-        <v>0.1387414538218508</v>
+        <v>0.1534457053284228</v>
       </c>
       <c r="E14">
-        <v>0.03008163274518255</v>
+        <v>0.03108505580194321</v>
       </c>
       <c r="F14">
-        <v>0.5095296641120086</v>
+        <v>0.4145963888516775</v>
       </c>
       <c r="G14">
-        <v>0.00080550905052311</v>
+        <v>0.04836794876837658</v>
       </c>
       <c r="H14">
-        <v>0.1625939618195531</v>
+        <v>0.1624790861542635</v>
       </c>
       <c r="I14">
-        <v>0.001506567126051017</v>
+        <v>0.001707843026808042</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3154858815987822</v>
+        <v>0.2543968710664259</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1191995136582076</v>
       </c>
       <c r="M14">
-        <v>1.452278788545243</v>
+        <v>0.07969168182924413</v>
       </c>
       <c r="N14">
-        <v>0.06288083665797473</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.397483111138541</v>
       </c>
       <c r="P14">
-        <v>0.7985384085069498</v>
+        <v>0.06576151777843364</v>
       </c>
       <c r="Q14">
-        <v>1.40046550868999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.8086974538369773</v>
+      </c>
+      <c r="S14">
+        <v>1.098176360374268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.417999009345181</v>
+        <v>1.328294697105775</v>
       </c>
       <c r="C15">
-        <v>0.2409435109672842</v>
+        <v>0.2479611158608179</v>
       </c>
       <c r="D15">
-        <v>0.1389201150046944</v>
+        <v>0.1523399972939785</v>
       </c>
       <c r="E15">
-        <v>0.02971812891333148</v>
+        <v>0.03085887365154028</v>
       </c>
       <c r="F15">
-        <v>0.4996443092725826</v>
+        <v>0.4111850216245045</v>
       </c>
       <c r="G15">
-        <v>0.0008058655223735682</v>
+        <v>0.03998870963818391</v>
       </c>
       <c r="H15">
-        <v>0.1751216115121252</v>
+        <v>0.1749817433525038</v>
       </c>
       <c r="I15">
-        <v>0.001651568914140533</v>
+        <v>0.001839565731037496</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.31069512969108</v>
+        <v>0.2530033357109716</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1190358137706706</v>
       </c>
       <c r="M15">
-        <v>1.433790467363991</v>
+        <v>0.07857630126128612</v>
       </c>
       <c r="N15">
-        <v>0.05448380625933069</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.38560772952809</v>
       </c>
       <c r="P15">
-        <v>0.8044439062255719</v>
+        <v>0.05741105162404736</v>
       </c>
       <c r="Q15">
-        <v>1.3753308946564</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.8121034150506645</v>
+      </c>
+      <c r="S15">
+        <v>1.092406523889977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.330546204100955</v>
+        <v>1.262856750307293</v>
       </c>
       <c r="C16">
-        <v>0.2294701771840977</v>
+        <v>0.2435935092896671</v>
       </c>
       <c r="D16">
-        <v>0.131474394808933</v>
+        <v>0.1388146838582003</v>
       </c>
       <c r="E16">
-        <v>0.02937391903388864</v>
+        <v>0.03085926788059679</v>
       </c>
       <c r="F16">
-        <v>0.4881039915157359</v>
+        <v>0.4240227105119274</v>
       </c>
       <c r="G16">
-        <v>0.0008075797173874641</v>
+        <v>0.01203416668851176</v>
       </c>
       <c r="H16">
-        <v>0.1624901315475142</v>
+        <v>0.1622014058525281</v>
       </c>
       <c r="I16">
-        <v>0.001938704901656152</v>
+        <v>0.001948325562964648</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3137560154439001</v>
+        <v>0.2656287729981059</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1250646802376139</v>
       </c>
       <c r="M16">
-        <v>1.344635720734885</v>
+        <v>0.08091842640637914</v>
       </c>
       <c r="N16">
-        <v>0.05346863839393379</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.326873667309741</v>
       </c>
       <c r="P16">
-        <v>0.8194674668713233</v>
+        <v>0.05732227919686395</v>
       </c>
       <c r="Q16">
-        <v>1.367929149034111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.8087467963030264</v>
+      </c>
+      <c r="S16">
+        <v>1.153479128267918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.304046932282432</v>
+        <v>1.243322141359641</v>
       </c>
       <c r="C17">
-        <v>0.2150568060960723</v>
+        <v>0.2321998197760138</v>
       </c>
       <c r="D17">
-        <v>0.1239653527477884</v>
+        <v>0.1287636979752591</v>
       </c>
       <c r="E17">
-        <v>0.03037514686546228</v>
+        <v>0.03167964263808998</v>
       </c>
       <c r="F17">
-        <v>0.4971553640101192</v>
+        <v>0.4416432072484113</v>
       </c>
       <c r="G17">
-        <v>0.0008085157574135131</v>
+        <v>0.006259222222552374</v>
       </c>
       <c r="H17">
-        <v>0.1247789314454195</v>
+        <v>0.1243966839384996</v>
       </c>
       <c r="I17">
-        <v>0.002151606385145222</v>
+        <v>0.002052380173374502</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3266121631417391</v>
+        <v>0.2805530841029089</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1315400879487338</v>
       </c>
       <c r="M17">
-        <v>1.296039039998334</v>
+        <v>0.08512204236391163</v>
       </c>
       <c r="N17">
-        <v>0.07184629175440449</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.29109180101193</v>
       </c>
       <c r="P17">
-        <v>0.8228631682492278</v>
+        <v>0.07667074016041653</v>
       </c>
       <c r="Q17">
-        <v>1.412474110184533</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.8025442630472597</v>
+      </c>
+      <c r="S17">
+        <v>1.220653760218738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.328868198573986</v>
+        <v>1.266307145759015</v>
       </c>
       <c r="C18">
-        <v>0.1968434558694128</v>
+        <v>0.2151232129374421</v>
       </c>
       <c r="D18">
-        <v>0.1155952980698061</v>
+        <v>0.1194748486152406</v>
       </c>
       <c r="E18">
-        <v>0.03686329233063734</v>
+        <v>0.03736053503122516</v>
       </c>
       <c r="F18">
-        <v>0.5261661173196828</v>
+        <v>0.4712516177205472</v>
       </c>
       <c r="G18">
-        <v>0.0008088379282255534</v>
+        <v>0.004934341961679412</v>
       </c>
       <c r="H18">
-        <v>0.07194322551929844</v>
+        <v>0.07154903179767302</v>
       </c>
       <c r="I18">
-        <v>0.001970155037801291</v>
+        <v>0.001794593857409765</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3511051437658317</v>
+        <v>0.3026468717707615</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.14036604099973</v>
       </c>
       <c r="M18">
-        <v>1.276666212428296</v>
+        <v>0.0926801176039973</v>
       </c>
       <c r="N18">
-        <v>0.1189347965052647</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.276775203576619</v>
       </c>
       <c r="P18">
-        <v>0.8187618575961118</v>
+        <v>0.1252109337357652</v>
       </c>
       <c r="Q18">
-        <v>1.511731838669377</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.792043210358834</v>
+      </c>
+      <c r="S18">
+        <v>1.318852008884519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.389077110057372</v>
+        <v>1.319075109723087</v>
       </c>
       <c r="C19">
-        <v>0.1798015251753924</v>
+        <v>0.1982265255196012</v>
       </c>
       <c r="D19">
-        <v>0.1078156607535448</v>
+        <v>0.1116663776524618</v>
       </c>
       <c r="E19">
-        <v>0.05345132939688391</v>
+        <v>0.05256965643613398</v>
       </c>
       <c r="F19">
-        <v>0.5676536613637779</v>
+        <v>0.5087078501526818</v>
       </c>
       <c r="G19">
-        <v>0.0008086212514525537</v>
+        <v>0.004518148572822511</v>
       </c>
       <c r="H19">
-        <v>0.02658019241720666</v>
+        <v>0.02627169611750446</v>
       </c>
       <c r="I19">
-        <v>0.002021247550512584</v>
+        <v>0.001916533706122436</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3831025602997755</v>
+        <v>0.3294041710963995</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1505512772982023</v>
       </c>
       <c r="M19">
-        <v>1.281731064880375</v>
+        <v>0.1026058850590559</v>
       </c>
       <c r="N19">
-        <v>0.2011966655348658</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.282729672039125</v>
       </c>
       <c r="P19">
-        <v>0.8130935225183933</v>
+        <v>0.2094094132518762</v>
       </c>
       <c r="Q19">
-        <v>1.644905427969007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.7814151565750755</v>
+      </c>
+      <c r="S19">
+        <v>1.437022672800097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.555609583983227</v>
+        <v>1.4625017662662</v>
       </c>
       <c r="C20">
-        <v>0.1633610886574175</v>
+        <v>0.179932469856368</v>
       </c>
       <c r="D20">
-        <v>0.1010523814194215</v>
+        <v>0.106865854448472</v>
       </c>
       <c r="E20">
-        <v>0.0969434647589047</v>
+        <v>0.0934285885402808</v>
       </c>
       <c r="F20">
-        <v>0.6468269773202096</v>
+        <v>0.5703280326507638</v>
       </c>
       <c r="G20">
-        <v>0.0008068859609865982</v>
+        <v>0.005789383379207536</v>
       </c>
       <c r="H20">
-        <v>0.0001426712784815543</v>
+        <v>0.0001327925062124535</v>
       </c>
       <c r="I20">
-        <v>0.001788686999970146</v>
+        <v>0.001943739842710457</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.437889647811339</v>
+        <v>0.3696552503752812</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1636936699788158</v>
       </c>
       <c r="M20">
-        <v>1.35595639164103</v>
+        <v>0.120324342057696</v>
       </c>
       <c r="N20">
-        <v>0.3771825464165914</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.347282604470962</v>
       </c>
       <c r="P20">
-        <v>0.7999066834054815</v>
+        <v>0.3881775519782167</v>
       </c>
       <c r="Q20">
-        <v>1.880722343358343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.7633864601915441</v>
+      </c>
+      <c r="S20">
+        <v>1.614932910515279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.759612150025561</v>
+        <v>1.613610236829999</v>
       </c>
       <c r="C21">
-        <v>0.1744544787731357</v>
+        <v>0.1811344247967241</v>
       </c>
       <c r="D21">
-        <v>0.1100953717604867</v>
+        <v>0.1265507247279629</v>
       </c>
       <c r="E21">
-        <v>0.1101316010818998</v>
+        <v>0.1077799427284489</v>
       </c>
       <c r="F21">
-        <v>0.6944518194637368</v>
+        <v>0.5548537979445314</v>
       </c>
       <c r="G21">
-        <v>0.0008035699859112388</v>
+        <v>0.0670852770774033</v>
       </c>
       <c r="H21">
-        <v>0.0001049251903919579</v>
+        <v>0.0002566332018201223</v>
       </c>
       <c r="I21">
-        <v>0.001668406552047585</v>
+        <v>0.002105304185048951</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4519876269234899</v>
+        <v>0.3499239654781867</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1510969916411113</v>
       </c>
       <c r="M21">
-        <v>1.527594065826264</v>
+        <v>0.1201270330785285</v>
       </c>
       <c r="N21">
-        <v>0.4372535803820483</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.455906140910628</v>
       </c>
       <c r="P21">
-        <v>0.7654401234002757</v>
+        <v>0.4443346312585135</v>
       </c>
       <c r="Q21">
-        <v>1.977387790906647</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.7416715615033596</v>
+      </c>
+      <c r="S21">
+        <v>1.516110328801119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.890642583341844</v>
+        <v>1.707583258775287</v>
       </c>
       <c r="C22">
-        <v>0.1820111012338828</v>
+        <v>0.1819864024647728</v>
       </c>
       <c r="D22">
-        <v>0.1162450623491225</v>
+        <v>0.1406499024052863</v>
       </c>
       <c r="E22">
-        <v>0.1165050366448952</v>
+        <v>0.1153776848906034</v>
       </c>
       <c r="F22">
-        <v>0.7245287887766381</v>
+        <v>0.5407685383658318</v>
       </c>
       <c r="G22">
-        <v>0.0008014735725526247</v>
+        <v>0.156034564076748</v>
       </c>
       <c r="H22">
-        <v>0.0003752811922446142</v>
+        <v>0.0005432677411605358</v>
       </c>
       <c r="I22">
-        <v>0.001517863698605737</v>
+        <v>0.001967738126840146</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4602763973432573</v>
+        <v>0.3350539197816822</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1427785900438501</v>
       </c>
       <c r="M22">
-        <v>1.638965643699578</v>
+        <v>0.119035475782205</v>
       </c>
       <c r="N22">
-        <v>0.4672427696330175</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.52174542173745</v>
       </c>
       <c r="P22">
-        <v>0.7435008521973083</v>
+        <v>0.4712476494005955</v>
       </c>
       <c r="Q22">
-        <v>2.036937807568194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.7317161491821693</v>
+      </c>
+      <c r="S22">
+        <v>1.440681821178572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.823701480974762</v>
+        <v>1.664335519154776</v>
       </c>
       <c r="C23">
-        <v>0.1773566285620731</v>
+        <v>0.1820842925854294</v>
       </c>
       <c r="D23">
-        <v>0.1127562051829969</v>
+        <v>0.1317924337324001</v>
       </c>
       <c r="E23">
-        <v>0.1133231835896638</v>
+        <v>0.1111820425318086</v>
       </c>
       <c r="F23">
-        <v>0.7099813483450603</v>
+        <v>0.5557493493125065</v>
       </c>
       <c r="G23">
-        <v>0.000802574081025638</v>
+        <v>0.09019304004975481</v>
       </c>
       <c r="H23">
-        <v>0.0002125546988729354</v>
+        <v>0.0003840503451246757</v>
       </c>
       <c r="I23">
-        <v>0.001272642491954912</v>
+        <v>0.001669056061627927</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.457224123338996</v>
+        <v>0.3471692092285252</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1485439466570035</v>
       </c>
       <c r="M23">
-        <v>1.579716560927722</v>
+        <v>0.1214016353833571</v>
       </c>
       <c r="N23">
-        <v>0.4509935117285693</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.493483510511254</v>
       </c>
       <c r="P23">
-        <v>0.7552478795848563</v>
+        <v>0.4571888706159655</v>
       </c>
       <c r="Q23">
-        <v>2.010047314336532</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.7351921306330453</v>
+      </c>
+      <c r="S23">
+        <v>1.503877220279037</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.565169448718962</v>
+        <v>1.471399891387705</v>
       </c>
       <c r="C24">
-        <v>0.1608787536131118</v>
+        <v>0.1772068834708591</v>
       </c>
       <c r="D24">
-        <v>0.09988852391036573</v>
+        <v>0.1055969069834717</v>
       </c>
       <c r="E24">
-        <v>0.1008997573138473</v>
+        <v>0.09716579495466249</v>
       </c>
       <c r="F24">
-        <v>0.6536577094267102</v>
+        <v>0.5769107404747089</v>
       </c>
       <c r="G24">
-        <v>0.0008068568527008056</v>
+        <v>0.005581778427472095</v>
       </c>
       <c r="H24">
-        <v>1.67167100575405E-05</v>
+        <v>2.184675360927812E-05</v>
       </c>
       <c r="I24">
-        <v>0.001285798699818486</v>
+        <v>0.001351617442230335</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4439725188304955</v>
+        <v>0.3750301247865018</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1657500609145224</v>
       </c>
       <c r="M24">
-        <v>1.355277874123686</v>
+        <v>0.1223026886006835</v>
       </c>
       <c r="N24">
-        <v>0.389994840187768</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.347067168902328</v>
       </c>
       <c r="P24">
-        <v>0.8008673301084261</v>
+        <v>0.4012576649182478</v>
       </c>
       <c r="Q24">
-        <v>1.903666096716023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.7631387899491369</v>
+      </c>
+      <c r="S24">
+        <v>1.636588764440347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.285966018060378</v>
+        <v>1.217593549121261</v>
       </c>
       <c r="C25">
-        <v>0.1433113464301528</v>
+        <v>0.1568126191239259</v>
       </c>
       <c r="D25">
-        <v>0.08600161738582557</v>
+        <v>0.08862174168084636</v>
       </c>
       <c r="E25">
-        <v>0.0874540167370057</v>
+        <v>0.08551406705605302</v>
       </c>
       <c r="F25">
-        <v>0.5955092065352616</v>
+        <v>0.5312080040717433</v>
       </c>
       <c r="G25">
-        <v>0.0008116801643671089</v>
+        <v>0.00681498515850576</v>
       </c>
       <c r="H25">
-        <v>0.000632681447376493</v>
+        <v>0.0001910646582075071</v>
       </c>
       <c r="I25">
-        <v>0.002230255788667534</v>
+        <v>0.00161680667593167</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4308744011323959</v>
+        <v>0.3699721394736422</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1727883275085489</v>
       </c>
       <c r="M25">
-        <v>1.11357073607229</v>
+        <v>0.1102125647146757</v>
       </c>
       <c r="N25">
-        <v>0.3244416747963754</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.114621458522294</v>
       </c>
       <c r="P25">
-        <v>0.8526223167245837</v>
+        <v>0.3350646799873687</v>
       </c>
       <c r="Q25">
-        <v>1.796286045397068</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8047637602853985</v>
+      </c>
+      <c r="S25">
+        <v>1.564251050931119</v>
       </c>
     </row>
   </sheetData>
